--- a/doc/Reagents_Permissions.xlsx
+++ b/doc/Reagents_Permissions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Melina</t>
+  </si>
+  <si>
+    <t>Copy</t>
   </si>
 </sst>
 </file>
@@ -549,21 +552,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="4" max="9" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -580,15 +583,16 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -602,18 +606,21 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -626,17 +633,18 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -649,15 +657,16 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -670,15 +679,16 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="1" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -691,15 +701,16 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="1"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -713,14 +724,15 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="1" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -734,14 +746,15 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="1" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -754,15 +767,16 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -775,15 +789,16 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="1" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -796,15 +811,16 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="1" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -817,15 +833,16 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="1" t="s">
+      <c r="J12" s="1"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -841,14 +858,15 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -864,12 +882,13 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="1" t="s">
+      <c r="J14" s="1"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -885,12 +904,13 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="1" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -906,12 +926,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="1" t="s">
+      <c r="J16" s="1"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -927,12 +948,13 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="1" t="s">
+      <c r="J17" s="1"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
         <v>27</v>
@@ -943,14 +965,14 @@
     <sortCondition ref="B13:B16"/>
   </sortState>
   <mergeCells count="8">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K13:K17"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J3:J12"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K3:K12"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
